--- a/result/realdata_summary.xlsx
+++ b/result/realdata_summary.xlsx
@@ -14,39 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="30">
+  <si>
+    <t>test_recall_mean</t>
+  </si>
+  <si>
+    <t>test_recall_std</t>
+  </si>
+  <si>
+    <t>test_gmean_mean</t>
+  </si>
+  <si>
+    <t>test_gmean_std</t>
+  </si>
+  <si>
+    <t>time_exp_mean</t>
+  </si>
+  <si>
+    <t>time_exp_std</t>
+  </si>
+  <si>
+    <t>time_exp_len</t>
+  </si>
+  <si>
+    <t>dataset_name</t>
+  </si>
   <si>
     <t>method</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>len</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>APSFailure</t>
+  </si>
+  <si>
+    <t>ActivityRecognitionWithHealthyOlderPeopleUsingABatterylessWearableSensor-RoomSet2</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>BitcoinHeistRansomwareAddress-binarize</t>
+  </si>
+  <si>
+    <t>BuzzInSocialMedia-Twitter_Relative_labeling_sigma1000</t>
+  </si>
+  <si>
+    <t>CensusIncomeKDD</t>
+  </si>
+  <si>
+    <t>DefaultOfCreditCardClients</t>
+  </si>
+  <si>
+    <t>OccupancyDetection</t>
+  </si>
+  <si>
+    <t>nsor-RoomSet2</t>
+  </si>
+  <si>
+    <t>p53Mutants</t>
+  </si>
+  <si>
+    <t>NearMiss</t>
+  </si>
+  <si>
+    <t>ADASYN</t>
+  </si>
+  <si>
+    <t>EditedNearestNeighbours</t>
   </si>
   <si>
     <t>OKNN</t>
   </si>
   <si>
-    <t>dataset</t>
-  </si>
-  <si>
-    <t>Adult</t>
-  </si>
-  <si>
-    <t>BuzzInSocialMedia-Twitter_Relative_labeling_sigma1000</t>
-  </si>
-  <si>
-    <t>OccupancyDetection</t>
+    <t>OneSidedSelection</t>
+  </si>
+  <si>
+    <t>RandomOverSampler</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>TomekLinks</t>
+  </si>
+  <si>
+    <t>EditedNearestNeighbours2</t>
+  </si>
+  <si>
+    <t>OneSidedSelection2</t>
   </si>
 </sst>
 </file>
@@ -404,150 +461,2126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.9506600000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.01048656283059425</v>
+      </c>
+      <c r="E3">
+        <v>0.9506600000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.01048656283059425</v>
+      </c>
+      <c r="G3">
+        <v>21.60264</v>
+      </c>
+      <c r="H3">
+        <v>1.396005065535222</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.893825</v>
+      </c>
+      <c r="D4">
+        <v>0.009746193588970217</v>
+      </c>
+      <c r="E4">
+        <v>0.893825</v>
+      </c>
+      <c r="F4">
+        <v>0.009746193588970217</v>
+      </c>
+      <c r="G4">
+        <v>113.76231</v>
+      </c>
+      <c r="H4">
+        <v>3.526520170888608</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0.8593049999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.01210799974788307</v>
+      </c>
+      <c r="E5">
+        <v>0.8593049999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.01210799974788307</v>
+      </c>
+      <c r="G5">
+        <v>2.0596</v>
+      </c>
+      <c r="H5">
+        <v>0.09558159919808386</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0.9493460999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.009775926074856155</v>
+      </c>
+      <c r="E6">
+        <v>0.9493460999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.009775926074856155</v>
+      </c>
+      <c r="G6">
+        <v>35.64351450204849</v>
+      </c>
+      <c r="H6">
+        <v>5.307254001439811</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>0.7977699999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.02232207073963488</v>
+      </c>
+      <c r="E7">
+        <v>0.7977699999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.02232207073963488</v>
+      </c>
+      <c r="G7">
+        <v>51.326465</v>
+      </c>
+      <c r="H7">
+        <v>8.328384899674822</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.9292999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.01426832155510942</v>
+      </c>
+      <c r="E8">
+        <v>0.9292999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.01426832155510942</v>
+      </c>
+      <c r="G8">
+        <v>19.01618</v>
+      </c>
+      <c r="H8">
+        <v>0.7436561718966636</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0.9480999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.01236668912846119</v>
+      </c>
+      <c r="E9">
+        <v>0.9480999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.01236668912846119</v>
+      </c>
+      <c r="G9">
+        <v>20.23762</v>
+      </c>
+      <c r="H9">
+        <v>1.117133466511499</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>0.7975849999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.02228389257784765</v>
+      </c>
+      <c r="E10">
+        <v>0.7975849999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.02228389257784765</v>
+      </c>
+      <c r="G10">
+        <v>70.980385</v>
+      </c>
+      <c r="H10">
+        <v>1.235401839281454</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0.8705400000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.02457545523484762</v>
+      </c>
+      <c r="E11">
+        <v>0.9286200000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.01284647811658896</v>
+      </c>
+      <c r="G11">
+        <v>0.9644400000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.0160618492086061</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0.8452649999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.02279204097001733</v>
+      </c>
+      <c r="E12">
+        <v>0.9116650000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.01297415548412749</v>
+      </c>
+      <c r="G12">
+        <v>1.00801</v>
+      </c>
+      <c r="H12">
+        <v>0.1732731366794543</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.818065</v>
+      </c>
+      <c r="D13">
+        <v>0.02315979444959234</v>
+      </c>
+      <c r="E13">
+        <v>0.8896750000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.01314469574831572</v>
+      </c>
+      <c r="G13">
+        <v>0.480255</v>
+      </c>
+      <c r="H13">
+        <v>0.04796825128748126</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>0.8653388999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.02303164783944042</v>
+      </c>
+      <c r="E14">
+        <v>0.9253477000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.0127166679891931</v>
+      </c>
+      <c r="G14">
+        <v>0.1349707961082459</v>
+      </c>
+      <c r="H14">
+        <v>0.0428780090603407</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0.8440300000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.02330358228617267</v>
+      </c>
+      <c r="E15">
+        <v>0.912145</v>
+      </c>
+      <c r="F15">
+        <v>0.0127685252414719</v>
+      </c>
+      <c r="G15">
+        <v>1.569715</v>
+      </c>
+      <c r="H15">
+        <v>0.06449904344455934</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>0.8372333333333334</v>
+      </c>
+      <c r="D16">
+        <v>0.03738671778408294</v>
+      </c>
+      <c r="E16">
+        <v>0.9100333333333334</v>
+      </c>
+      <c r="F16">
+        <v>0.02081544298511726</v>
+      </c>
+      <c r="G16">
+        <v>0.2627833333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.01747357051854793</v>
+      </c>
+      <c r="I16">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>0.8692</v>
+      </c>
+      <c r="D17">
+        <v>0.02227981148932824</v>
+      </c>
+      <c r="E17">
+        <v>0.9281400000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.01146921967703126</v>
+      </c>
+      <c r="G17">
+        <v>0.28822</v>
+      </c>
+      <c r="H17">
+        <v>0.01923881493231847</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>0.8437250000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.02289814690272877</v>
+      </c>
+      <c r="E18">
+        <v>0.9120100000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.01258273252893569</v>
+      </c>
+      <c r="G18">
+        <v>0.9286099999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.2535145400169387</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0.7821399999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.007116038223618554</v>
+      </c>
+      <c r="E19">
+        <v>0.7821399999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.007116038223618554</v>
+      </c>
+      <c r="G19">
+        <v>17.23922</v>
+      </c>
+      <c r="H19">
+        <v>2.713918610975649</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0.80406</v>
+      </c>
+      <c r="D20">
+        <v>0.006133291380482006</v>
+      </c>
+      <c r="E20">
+        <v>0.80406</v>
+      </c>
+      <c r="F20">
+        <v>0.006133291380482006</v>
+      </c>
+      <c r="G20">
+        <v>36.983495</v>
+      </c>
+      <c r="H20">
+        <v>0.7293952415492818</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.74795</v>
+      </c>
+      <c r="D21">
+        <v>0.006315269715455345</v>
+      </c>
+      <c r="E21">
+        <v>0.74795</v>
+      </c>
+      <c r="F21">
+        <v>0.006315269715455345</v>
+      </c>
+      <c r="G21">
+        <v>6.785415</v>
+      </c>
+      <c r="H21">
+        <v>0.1814978418749467</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0.80612105</v>
+      </c>
+      <c r="D22">
+        <v>0.005784784856800931</v>
+      </c>
+      <c r="E22">
+        <v>0.80612105</v>
+      </c>
+      <c r="F22">
+        <v>0.005784784856800931</v>
+      </c>
+      <c r="G22">
+        <v>13.24460209608078</v>
+      </c>
+      <c r="H22">
+        <v>1.313530335458404</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>0.771195</v>
+      </c>
+      <c r="D23">
+        <v>0.00531942567141266</v>
+      </c>
+      <c r="E23">
+        <v>0.771195</v>
+      </c>
+      <c r="F23">
+        <v>0.00531942567141266</v>
+      </c>
+      <c r="G23">
+        <v>30.345665</v>
+      </c>
+      <c r="H23">
+        <v>0.3680067551940056</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>0.79478</v>
+      </c>
+      <c r="D24">
+        <v>0.006482052144190162</v>
+      </c>
+      <c r="E24">
+        <v>0.79478</v>
+      </c>
+      <c r="F24">
+        <v>0.006482052144190162</v>
+      </c>
+      <c r="G24">
+        <v>6.35212</v>
+      </c>
+      <c r="H24">
+        <v>0.3537744719450516</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>0.79356</v>
+      </c>
+      <c r="D25">
+        <v>0.005647831442244012</v>
+      </c>
+      <c r="E25">
+        <v>0.79356</v>
+      </c>
+      <c r="F25">
+        <v>0.005647831442244012</v>
+      </c>
+      <c r="G25">
+        <v>8.79368</v>
+      </c>
+      <c r="H25">
+        <v>0.4046146401206969</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>0.771195</v>
+      </c>
+      <c r="D26">
+        <v>0.00531942567141266</v>
+      </c>
+      <c r="E26">
+        <v>0.771195</v>
+      </c>
+      <c r="F26">
+        <v>0.00531942567141266</v>
+      </c>
+      <c r="G26">
+        <v>30.9394</v>
+      </c>
+      <c r="H26">
+        <v>0.5876905746895624</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>0.65124</v>
+      </c>
+      <c r="D27">
+        <v>0.00326619044147765</v>
+      </c>
+      <c r="E27">
+        <v>0.65124</v>
+      </c>
+      <c r="F27">
+        <v>0.00326619044147765</v>
+      </c>
+      <c r="G27">
+        <v>82.57634</v>
+      </c>
+      <c r="H27">
+        <v>1.203387299667069</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>0.6511199999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.003524590308405389</v>
+      </c>
+      <c r="E28">
+        <v>0.6511199999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.003524590308405389</v>
+      </c>
+      <c r="G28">
+        <v>492.1534549999998</v>
+      </c>
+      <c r="H28">
+        <v>98.28512580367754</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>0.53606</v>
+      </c>
+      <c r="D29">
+        <v>0.001612908455000017</v>
+      </c>
+      <c r="E29">
+        <v>0.53606</v>
+      </c>
+      <c r="F29">
+        <v>0.001612908455000017</v>
+      </c>
+      <c r="G29">
+        <v>83.42817999999998</v>
+      </c>
+      <c r="H29">
+        <v>12.22595453643384</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>0.5068127894736842</v>
+      </c>
+      <c r="D30">
+        <v>0.001074418942651095</v>
+      </c>
+      <c r="E30">
+        <v>0.5068127894736842</v>
+      </c>
+      <c r="F30">
+        <v>0.001074418942651095</v>
+      </c>
+      <c r="G30">
+        <v>66.88483981082314</v>
+      </c>
+      <c r="H30">
+        <v>34.38783822060236</v>
+      </c>
+      <c r="I30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>0.62063</v>
+      </c>
+      <c r="D31">
+        <v>0.003164290890879854</v>
+      </c>
+      <c r="E31">
+        <v>0.62063</v>
+      </c>
+      <c r="F31">
+        <v>0.003164290890879854</v>
+      </c>
+      <c r="G31">
+        <v>523.4321000000001</v>
+      </c>
+      <c r="H31">
+        <v>19.73478725577065</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>0.63602</v>
+      </c>
+      <c r="D32">
+        <v>0.002569435735720951</v>
+      </c>
+      <c r="E32">
+        <v>0.63602</v>
+      </c>
+      <c r="F32">
+        <v>0.002569435735720951</v>
+      </c>
+      <c r="G32">
+        <v>84.69842</v>
+      </c>
+      <c r="H32">
+        <v>1.123672172833336</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>0.6525</v>
+      </c>
+      <c r="D33">
+        <v>0.002654241887997395</v>
+      </c>
+      <c r="E33">
+        <v>0.6525</v>
+      </c>
+      <c r="F33">
+        <v>0.002654241887997395</v>
+      </c>
+      <c r="G33">
+        <v>84.90106</v>
+      </c>
+      <c r="H33">
+        <v>1.294977576253742</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>0.6206200000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.003074787112870376</v>
+      </c>
+      <c r="E34">
+        <v>0.6206200000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.003074787112870376</v>
+      </c>
+      <c r="G34">
+        <v>449.58577</v>
+      </c>
+      <c r="H34">
+        <v>101.1672266579298</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>0.9320999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.008061327434114047</v>
+      </c>
+      <c r="E35">
+        <v>0.9320999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.008061327434114047</v>
+      </c>
+      <c r="G35">
+        <v>53.36316000000001</v>
+      </c>
+      <c r="H35">
+        <v>1.391533358565293</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>0.889255</v>
+      </c>
+      <c r="D36">
+        <v>0.01898887416634443</v>
+      </c>
+      <c r="E36">
+        <v>0.889255</v>
+      </c>
+      <c r="F36">
+        <v>0.01898887416634443</v>
+      </c>
+      <c r="G36">
+        <v>341.22203</v>
+      </c>
+      <c r="H36">
+        <v>8.037855654280731</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>0.8110800000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.007303899463192315</v>
+      </c>
+      <c r="E37">
+        <v>0.8110800000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.007303899463192315</v>
+      </c>
+      <c r="G37">
+        <v>4.016545</v>
+      </c>
+      <c r="H37">
+        <v>0.1326793621162649</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>0.930084125</v>
+      </c>
+      <c r="D38">
+        <v>0.01459788736610788</v>
+      </c>
+      <c r="E38">
+        <v>0.930084125</v>
+      </c>
+      <c r="F38">
+        <v>0.01459788736610788</v>
+      </c>
+      <c r="G38">
+        <v>104.7888263463974</v>
+      </c>
+      <c r="H38">
+        <v>22.00284202606009</v>
+      </c>
+      <c r="I38">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0.8007191635443892</v>
-      </c>
-      <c r="C5">
-        <v>9.436867396036783</v>
-      </c>
-      <c r="D5">
-        <v>0.006845887035511717</v>
-      </c>
-      <c r="E5">
-        <v>1.100477489323436</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.9073097699662427</v>
-      </c>
-      <c r="C6">
-        <v>82.65713467597962</v>
-      </c>
-      <c r="D6">
-        <v>0.0178880202706881</v>
-      </c>
-      <c r="E6">
-        <v>1.782573739842054</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.9946210259995342</v>
-      </c>
-      <c r="C7">
-        <v>0.03876641988754272</v>
-      </c>
-      <c r="D7">
-        <v>0.001730636140589273</v>
-      </c>
-      <c r="E7">
-        <v>0.002383902835713301</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>0.8078049999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.02213150826072947</v>
+      </c>
+      <c r="E39">
+        <v>0.8078049999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.02213150826072947</v>
+      </c>
+      <c r="G39">
+        <v>162.299385</v>
+      </c>
+      <c r="H39">
+        <v>35.68089801063802</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>0.9112</v>
+      </c>
+      <c r="D40">
+        <v>0.01047091209016675</v>
+      </c>
+      <c r="E40">
+        <v>0.9112</v>
+      </c>
+      <c r="F40">
+        <v>0.01047091209016675</v>
+      </c>
+      <c r="G40">
+        <v>55.80678</v>
+      </c>
+      <c r="H40">
+        <v>1.91732353347055</v>
+      </c>
+      <c r="I40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>0.9293800000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.008623920222265496</v>
+      </c>
+      <c r="E41">
+        <v>0.9293800000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.008623920222265496</v>
+      </c>
+      <c r="G41">
+        <v>52.50088</v>
+      </c>
+      <c r="H41">
+        <v>3.079660700791568</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>0.8078049999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.02213150826072947</v>
+      </c>
+      <c r="E42">
+        <v>0.8078049999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.02213150826072947</v>
+      </c>
+      <c r="G42">
+        <v>244.52166</v>
+      </c>
+      <c r="H42">
+        <v>6.453493377062495</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>0.8273199999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.007023318304049771</v>
+      </c>
+      <c r="E43">
+        <v>0.8273199999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.007023318304049771</v>
+      </c>
+      <c r="G43">
+        <v>455.35518</v>
+      </c>
+      <c r="H43">
+        <v>15.53548396243259</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>0.8182600000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.0278796549098933</v>
+      </c>
+      <c r="E44">
+        <v>0.8182600000000001</v>
+      </c>
+      <c r="F44">
+        <v>0.0278796549098933</v>
+      </c>
+      <c r="G44">
+        <v>1769.38342</v>
+      </c>
+      <c r="H44">
+        <v>71.69348261785321</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <v>0.7653333333333333</v>
+      </c>
+      <c r="D45">
+        <v>0.01135135821535613</v>
+      </c>
+      <c r="E45">
+        <v>0.7653333333333333</v>
+      </c>
+      <c r="F45">
+        <v>0.01135135821535613</v>
+      </c>
+      <c r="G45">
+        <v>1726.146533333333</v>
+      </c>
+      <c r="H45">
+        <v>19.4547719560866</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>0.6957600000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.004831083565935586</v>
+      </c>
+      <c r="E46">
+        <v>0.6957600000000002</v>
+      </c>
+      <c r="F46">
+        <v>0.004831083565935586</v>
+      </c>
+      <c r="G46">
+        <v>82.72419500000002</v>
+      </c>
+      <c r="H46">
+        <v>0.8751548118536081</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>0.701635</v>
+      </c>
+      <c r="D47">
+        <v>0.00595874191949593</v>
+      </c>
+      <c r="E47">
+        <v>0.701635</v>
+      </c>
+      <c r="F47">
+        <v>0.00595874191949593</v>
+      </c>
+      <c r="G47">
+        <v>1008.8782</v>
+      </c>
+      <c r="H47">
+        <v>201.8097795025514</v>
+      </c>
+      <c r="I47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>0.7016</v>
+      </c>
+      <c r="D48">
+        <v>0.009165696918401744</v>
+      </c>
+      <c r="E48">
+        <v>0.7016</v>
+      </c>
+      <c r="F48">
+        <v>0.009165696918401744</v>
+      </c>
+      <c r="G48">
+        <v>1014.184533333333</v>
+      </c>
+      <c r="H48">
+        <v>192.5913098032291</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>0.8283200000000001</v>
+      </c>
+      <c r="D49">
+        <v>0.007122990944820824</v>
+      </c>
+      <c r="E49">
+        <v>0.8283200000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.007122990944820824</v>
+      </c>
+      <c r="G49">
+        <v>348.609</v>
+      </c>
+      <c r="H49">
+        <v>23.66871526139519</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>0.8303800000000001</v>
+      </c>
+      <c r="D50">
+        <v>0.007485786531821506</v>
+      </c>
+      <c r="E50">
+        <v>0.8303800000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.007485786531821506</v>
+      </c>
+      <c r="G50">
+        <v>359.76322</v>
+      </c>
+      <c r="H50">
+        <v>21.92684214979439</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>0.701615</v>
+      </c>
+      <c r="D51">
+        <v>0.005977085630269892</v>
+      </c>
+      <c r="E51">
+        <v>0.701615</v>
+      </c>
+      <c r="F51">
+        <v>0.005977085630269892</v>
+      </c>
+      <c r="G51">
+        <v>1367.94435</v>
+      </c>
+      <c r="H51">
+        <v>8.665093203829512</v>
+      </c>
+      <c r="I51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>0.66672</v>
+      </c>
+      <c r="D52">
+        <v>0.00655797224757775</v>
+      </c>
+      <c r="E52">
+        <v>0.66672</v>
+      </c>
+      <c r="F52">
+        <v>0.00655797224757775</v>
+      </c>
+      <c r="G52">
+        <v>6.9265</v>
+      </c>
+      <c r="H52">
+        <v>0.1185485132762112</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>0.6831</v>
+      </c>
+      <c r="D53">
+        <v>0.008865723469158017</v>
+      </c>
+      <c r="E53">
+        <v>0.6831</v>
+      </c>
+      <c r="F53">
+        <v>0.008865723469158017</v>
+      </c>
+      <c r="G53">
+        <v>13.11737</v>
+      </c>
+      <c r="H53">
+        <v>0.8448817289388718</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>0.653935</v>
+      </c>
+      <c r="D54">
+        <v>0.01035787394360344</v>
+      </c>
+      <c r="E54">
+        <v>0.653935</v>
+      </c>
+      <c r="F54">
+        <v>0.01035787394360344</v>
+      </c>
+      <c r="G54">
+        <v>2.404805</v>
+      </c>
+      <c r="H54">
+        <v>0.2779973579484448</v>
+      </c>
+      <c r="I54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>0.6909814000000001</v>
+      </c>
+      <c r="D55">
+        <v>0.0100827104929285</v>
+      </c>
+      <c r="E55">
+        <v>0.6909814000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.0100827104929285</v>
+      </c>
+      <c r="G55">
+        <v>5.433021104335785</v>
+      </c>
+      <c r="H55">
+        <v>0.5825318355229165</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>0.6548149999999999</v>
+      </c>
+      <c r="D56">
+        <v>0.00877420111823053</v>
+      </c>
+      <c r="E56">
+        <v>0.6548149999999999</v>
+      </c>
+      <c r="F56">
+        <v>0.00877420111823053</v>
+      </c>
+      <c r="G56">
+        <v>11.05595</v>
+      </c>
+      <c r="H56">
+        <v>0.1987071065929104</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>0.6548149999999999</v>
+      </c>
+      <c r="D57">
+        <v>0.00877420111823053</v>
+      </c>
+      <c r="E57">
+        <v>0.6548149999999999</v>
+      </c>
+      <c r="F57">
+        <v>0.00877420111823053</v>
+      </c>
+      <c r="G57">
+        <v>10.99478</v>
+      </c>
+      <c r="H57">
+        <v>0.1451965259842495</v>
+      </c>
+      <c r="I57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>0.6716</v>
+      </c>
+      <c r="D58">
+        <v>0.01153191224385617</v>
+      </c>
+      <c r="E58">
+        <v>0.6716</v>
+      </c>
+      <c r="F58">
+        <v>0.01153191224385617</v>
+      </c>
+      <c r="G58">
+        <v>2.38538</v>
+      </c>
+      <c r="H58">
+        <v>0.08073244081532542</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>0.6755199999999999</v>
+      </c>
+      <c r="D59">
+        <v>0.008525667129321873</v>
+      </c>
+      <c r="E59">
+        <v>0.6755199999999999</v>
+      </c>
+      <c r="F59">
+        <v>0.008525667129321873</v>
+      </c>
+      <c r="G59">
+        <v>3.1328</v>
+      </c>
+      <c r="H59">
+        <v>0.03814754251586861</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>0.6548399999999999</v>
+      </c>
+      <c r="D60">
+        <v>0.008694729195867669</v>
+      </c>
+      <c r="E60">
+        <v>0.6548399999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.008694729195867669</v>
+      </c>
+      <c r="G60">
+        <v>11.38379</v>
+      </c>
+      <c r="H60">
+        <v>0.243482137894516</v>
+      </c>
+      <c r="I60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>0.9954799999999999</v>
+      </c>
+      <c r="D61">
+        <v>0.001921457779916071</v>
+      </c>
+      <c r="E61">
+        <v>0.9954799999999999</v>
+      </c>
+      <c r="F61">
+        <v>0.001921457779916071</v>
+      </c>
+      <c r="G61">
+        <v>0.3131</v>
+      </c>
+      <c r="H61">
+        <v>0.001589024858207077</v>
+      </c>
+      <c r="I61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>0.9944650000000002</v>
+      </c>
+      <c r="D62">
+        <v>0.001971714455679819</v>
+      </c>
+      <c r="E62">
+        <v>0.9944650000000002</v>
+      </c>
+      <c r="F62">
+        <v>0.001971714455679819</v>
+      </c>
+      <c r="G62">
+        <v>0.24188</v>
+      </c>
+      <c r="H62">
+        <v>0.05202008316632702</v>
+      </c>
+      <c r="I62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>0.992405</v>
+      </c>
+      <c r="D63">
+        <v>0.003353156407735407</v>
+      </c>
+      <c r="E63">
+        <v>0.992405</v>
+      </c>
+      <c r="F63">
+        <v>0.003353156407735407</v>
+      </c>
+      <c r="G63">
+        <v>0.21006</v>
+      </c>
+      <c r="H63">
+        <v>0.04306059867088168</v>
+      </c>
+      <c r="I63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>0.9951054999999996</v>
+      </c>
+      <c r="D64">
+        <v>0.001770689086797942</v>
+      </c>
+      <c r="E64">
+        <v>0.9951054999999996</v>
+      </c>
+      <c r="F64">
+        <v>0.001770689086797942</v>
+      </c>
+      <c r="G64">
+        <v>0.1001565933227539</v>
+      </c>
+      <c r="H64">
+        <v>0.06369877760491482</v>
+      </c>
+      <c r="I64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>0.9933</v>
+      </c>
+      <c r="D65">
+        <v>0.002243587352996592</v>
+      </c>
+      <c r="E65">
+        <v>0.9933</v>
+      </c>
+      <c r="F65">
+        <v>0.002243587352996592</v>
+      </c>
+      <c r="G65">
+        <v>0.63234</v>
+      </c>
+      <c r="H65">
+        <v>0.04108851036738281</v>
+      </c>
+      <c r="I65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>0.9933</v>
+      </c>
+      <c r="D66">
+        <v>0.002243587352996592</v>
+      </c>
+      <c r="E66">
+        <v>0.9933</v>
+      </c>
+      <c r="F66">
+        <v>0.002243587352996592</v>
+      </c>
+      <c r="G66">
+        <v>0.6139849999999999</v>
+      </c>
+      <c r="H66">
+        <v>0.01371166522191576</v>
+      </c>
+      <c r="I66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>0.9953800000000002</v>
+      </c>
+      <c r="D67">
+        <v>0.001863330351816291</v>
+      </c>
+      <c r="E67">
+        <v>0.9953800000000002</v>
+      </c>
+      <c r="F67">
+        <v>0.001863330351816291</v>
+      </c>
+      <c r="G67">
+        <v>0.0905</v>
+      </c>
+      <c r="H67">
+        <v>0.001320984481362292</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68">
+        <v>0.99596</v>
+      </c>
+      <c r="D68">
+        <v>0.001825650568975363</v>
+      </c>
+      <c r="E68">
+        <v>0.99596</v>
+      </c>
+      <c r="F68">
+        <v>0.001825650568975363</v>
+      </c>
+      <c r="G68">
+        <v>0.1084</v>
+      </c>
+      <c r="H68">
+        <v>0.002088061301782108</v>
+      </c>
+      <c r="I68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69">
+        <v>0.9932649999999998</v>
+      </c>
+      <c r="D69">
+        <v>0.002249040731184356</v>
+      </c>
+      <c r="E69">
+        <v>0.9932649999999998</v>
+      </c>
+      <c r="F69">
+        <v>0.002249040731184356</v>
+      </c>
+      <c r="G69">
+        <v>0.229515</v>
+      </c>
+      <c r="H69">
+        <v>0.04440920097883937</v>
+      </c>
+      <c r="I69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>0.8031</v>
+      </c>
+      <c r="E70">
+        <v>0.8848</v>
+      </c>
+      <c r="G70">
+        <v>1.2737</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>0.91288</v>
+      </c>
+      <c r="D71">
+        <v>0.0514211726820772</v>
+      </c>
+      <c r="E71">
+        <v>0.91288</v>
+      </c>
+      <c r="F71">
+        <v>0.0514211726820772</v>
+      </c>
+      <c r="G71">
+        <v>13.10046</v>
+      </c>
+      <c r="H71">
+        <v>1.124810663178474</v>
+      </c>
+      <c r="I71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>0.814855</v>
+      </c>
+      <c r="D72">
+        <v>0.06352907726305129</v>
+      </c>
+      <c r="E72">
+        <v>0.814855</v>
+      </c>
+      <c r="F72">
+        <v>0.06352907726305129</v>
+      </c>
+      <c r="G72">
+        <v>35.24968499999999</v>
+      </c>
+      <c r="H72">
+        <v>1.989765018994904</v>
+      </c>
+      <c r="I72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>0.7607700000000001</v>
+      </c>
+      <c r="D73">
+        <v>0.04760806101580078</v>
+      </c>
+      <c r="E73">
+        <v>0.7607700000000001</v>
+      </c>
+      <c r="F73">
+        <v>0.04760806101580078</v>
+      </c>
+      <c r="G73">
+        <v>3.555839999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.2027642639540856</v>
+      </c>
+      <c r="I73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>0.7831699999999999</v>
+      </c>
+      <c r="D74">
+        <v>0.05949550270487055</v>
+      </c>
+      <c r="E74">
+        <v>0.7831699999999999</v>
+      </c>
+      <c r="F74">
+        <v>0.05949550270487055</v>
+      </c>
+      <c r="G74">
+        <v>29.397715</v>
+      </c>
+      <c r="H74">
+        <v>2.278294683651047</v>
+      </c>
+      <c r="I74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75">
+        <v>0.7831699999999999</v>
+      </c>
+      <c r="D75">
+        <v>0.05949550270487055</v>
+      </c>
+      <c r="E75">
+        <v>0.7831699999999999</v>
+      </c>
+      <c r="F75">
+        <v>0.05949550270487055</v>
+      </c>
+      <c r="G75">
+        <v>29.40152</v>
+      </c>
+      <c r="H75">
+        <v>3.530400205970393</v>
+      </c>
+      <c r="I75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>0.8629</v>
+      </c>
+      <c r="D76">
+        <v>0.06975008960567723</v>
+      </c>
+      <c r="E76">
+        <v>0.8629</v>
+      </c>
+      <c r="F76">
+        <v>0.06975008960567723</v>
+      </c>
+      <c r="G76">
+        <v>8.54036</v>
+      </c>
+      <c r="H76">
+        <v>0.193908749157948</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>0.91292</v>
+      </c>
+      <c r="D77">
+        <v>0.05143332577230451</v>
+      </c>
+      <c r="E77">
+        <v>0.91292</v>
+      </c>
+      <c r="F77">
+        <v>0.05143332577230451</v>
+      </c>
+      <c r="G77">
+        <v>10.7846</v>
+      </c>
+      <c r="H77">
+        <v>0.2624901236237277</v>
+      </c>
+      <c r="I77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78">
+        <v>0.7831699999999999</v>
+      </c>
+      <c r="D78">
+        <v>0.05949550270487055</v>
+      </c>
+      <c r="E78">
+        <v>0.7831699999999999</v>
+      </c>
+      <c r="F78">
+        <v>0.05949550270487055</v>
+      </c>
+      <c r="G78">
+        <v>32.70240999999999</v>
+      </c>
+      <c r="H78">
+        <v>0.5308859823074327</v>
+      </c>
+      <c r="I78">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A69"/>
+    <mergeCell ref="A71:A78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
